--- a/finetuning/it_datasets/qa_dataset/qa_it_tajerouine_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_tajerouine_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -671,15 +676,52 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a satisfying dining experience, head to Big Ben Resto located at VHR3+G3R Big Ben Resto, Ave H.Bourguiba Rd, Tajerouine. 
-This highly-rated restaurant offers a range of delectable dishes, perfect for food enthusiasts. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00. 
-To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.facebook.com/pages/Big-Ben-Resto/1643318282455345 or call them at 22 254 905.</t>
+          <t>**Big Ben Resto**, located in Tajerouine at the coordinates (35.8868991, 8.5524255), is a popular restaurant that boasts a 4.3-star rating based on 24 reviews. It operates from 9:00 AM to 11:00 PM every day, offering a wide range of dining options.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Tajerouine can you find a highly-rated dining experience with delectable dishes, a 4.3 rating, and convenient hours of operation?</t>
+          <t>Day Plan:
+Morning: Visit the historic landmark Gare Routiere, a bustling bus station offering a glimpse into the local transportation system. Explore the surrounding area to discover hidden gems and local markets.
+Mid-Morning: Head to the local grocery store Cirta Nova Cafe for a taste of authentic Tunisian flavors. Sample fresh produce and local delicacies while interacting with friendly locals.
+Midday: Indulge in a delicious traditional meal at the highly-rated local restaurant Tej Coffee, known for its warm ambiance and delectable cuisine.
+Afternoon: Visit the scenic park Ta'D'Art for a relaxing afternoon stroll amidst lush greenery. Take in the breathtaking views and enjoy the park's serene atmosphere.
+Evening: Experience the vibrant local culture at UP TOWN Cafe &amp; Resto, a family-friendly restaurant with a warm atmosphere. Savor mouthwatering dishes and strike up conversations with friendly locals.
+Night: End the day with a shopping spree at the local market, where you can find unique souvenirs and local products. Explore the bustling streets and immerse yourself in the vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The restaurant "jbn lHmdny" is located in tajerouine, Tunisia. The coordinates are (35.8868991, 8.5524255). The restaurant has 3 reviews and a 5.0 rating. The main category is Restaurant. The owner is "jbn lHmdny (proprietaire)". The restaurant's phone number is 99 061 517 and the address is VHV3+Q43 jbn lHmdny, Tajerouine.
+Tej Coffee is a cafe located in Tajerouine, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The cafe is located at coordinates (35.8868991, 8.5524255) and its website and phone number are not available.
+UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -785,12 +827,60 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for something fun to do, check out Cafe Essalem located at VHV3+G86 Cafe Essalem, Ave H.Bourguiba Rd, Tajerouine. This top-rated destination is perfect for Cafe lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website  or call them at 40 188 684.</t>
+          <t>Cafe Essalem, located in Tajerouine (35.8868991, 8.5524255), is a well-rated cafe with a 4.7-star rating from 11 reviews. It is open 24 hours a day and offers a variety of services and amenities, including:
+- Featured image
+- Website
+- Owner information
+- Categories
+- Phone number
+- Address
+- Review keywords
+- Link to Google Maps listing</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>If you're in Tajerouine and craving a delightful café experience, where can you find a highly rated destination perfect for café enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Cirta Nova Cafe grocery store for a glimpse of local life.
+Mid-Morning: Visit Ta'D'Art, an acclaimed park with a serene ambiance and stunning scenery.
+Midday: Try local cuisine at Restaurant Bengamra, known for its delicious and diverse offerings.
+Afternoon: Engage in retail therapy at UP TOWN Cafe &amp; Resto, renowned for its chic atmosphere and delightful dining options.
+Evening: Immerse yourself in the vibrant ambiance of Dose coffee Shop, the perfect spot to unwind and socialize over a cup of coffee.
+Night: Indulge in the delectable pizzas at Lemporio, a local pizzeria open late into the night for a satisfying meal to end the day.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Bengamra is a restaurant located in Tajerouine, Tunisia. It has a rating of 4.2 out of 5 stars and offers a variety of cuisines. The restaurant is open daily and is located at the coordinates 35.8868991, 8.5524255.
+Dose coffee Shop is a cafe located in tajerouine at the coordinates (35.8868991, 8.5524255). It has a rating of 4.3 based on 6 reviews and is open from 07:30 to 00:00.
+UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -900,12 +990,52 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a top-rated Restaurant familial, check out UP TOWN Cafe &amp; Resto located at WH34+3HC UP TOWN Cafe &amp; Resto. With a rating of 5.0, it's a must-visit spot for Restaurant familial lovers. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 38.905489, -77.005095. For more details, visit their website at https://m.facebook.com/Tajerouine-UpTown-102854505252105/posts or call them at 51 477 218.</t>
+          <t>UP TOWN Cafe &amp; Resto is a restaurant with a 5.0 rating, located in tajerouine (35.9026882, 8.5564023). The place offers family dining from 10:00-23:00 and can be contacted at 51 477 218.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant familial with GPS coordinates 38.905489, -77.005095 in tajerouine?</t>
+          <t>Day Plan:
+Morning: Exploring the scenic Ta'D'Art park and soaking in its natural beauty.
+Mid-Morning: Trying local cuisine at Restaurant Bengamra, savoring the flavors of traditional Tunisian dishes.
+Midday: Visiting Cirta Nova Cafe for a quick bite and some grocery shopping for local delicacies.
+Afternoon: Relaxing with a spa treatment at a local hotel, rejuvenating for the rest of the day's activities.
+Evening: Enjoying scenic views at UP TOWN Cafe &amp; Resto, sipping on beverages while admiring the city's charm.
+Night: Experiencing cultural immersion at Ta'D'Art park, immersing in the local traditions and cultural performances.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Bengamra is a restaurant located in Tajerouine, Tunisia. It has a rating of 4.2 out of 5 stars and offers a variety of cuisines. The restaurant is open daily and is located at the coordinates 35.8868991, 8.5524255.
+Cafe galaxi is located in tajerouine. Sadly, there is no available description for the place at the moment. Its coordinates are (35.8868991, 8.5524255).
+UP TOWN Cafe &amp; Resto is a restaurant with a 5.0 rating, located in tajerouine (35.9026882, 8.5564023). The place offers family dining from 10:00-23:00 and can be contacted at 51 477 218.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria located in Rue el hbib thamer, Tajerouine (coordinates: 35.8868991, 8.5524255) and open 24 hours a day. It features a wide selection of pizzas and other Italian dishes, accompanied by a range of drinks.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+The bus station in Tajerouine, Tunisia, offers a variety of services to travelers. It is located at coordinates (35.8908111, 8.5514672) and has a rating of 3.5 out of 5 stars on Google. The station provides a convenient and affordable way to travel to and from Tajerouine, and it is a popular choice for both locals and tourists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1011,14 +1141,52 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for something fun to do, check out Dose coffee Shop located at VHQ2+J4V Dose coffee Shop, nhj lfrwsy@, Tajerouine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:30-00:00, but closed on []. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website or call them at 28 567 145.</t>
+          <t>Dose coffee Shop is a cafe located in tajerouine at the coordinates (35.8868991, 8.5524255). It has a rating of 4.3 based on 6 reviews and is open from 07:30 to 00:00.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafe with a 4.3 rating in Tajerouine that offers a variety of Cafe to choose from?</t>
+          <t>Day Plan:
+Morning: Explore the local market, Cirta Nova Cafe, for fresh produce and packaged foods.
+Mid-Morning: Enjoy a delicious breakfast at Big Ben Resto, a popular restaurant with a wide range of dining options.
+Midday: Immerse yourself in the culture at UP TOWN Cafe &amp; Resto, a family-friendly restaurant with excellent ratings and a charming atmosphere.
+Afternoon: Visit the Ta'D'Art park, a beautiful green space with scenic views and various recreational activities.
+Evening: Experience the vibrant atmosphere at Lemporio, a pizzeria open 24 hours, offering a wide selection of Italian dishes.
+Night: Relax at a local spa or hotel with a massage or other rejuvenating treatments.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Big Ben Resto**, located in Tajerouine at the coordinates (35.8868991, 8.5524255), is a popular restaurant that boasts a 4.3-star rating based on 24 reviews. It operates from 9:00 AM to 11:00 PM every day, offering a wide range of dining options.
+Dose coffee Shop is a cafe located in tajerouine at the coordinates (35.8868991, 8.5524255). It has a rating of 4.3 based on 6 reviews and is open from 07:30 to 00:00.
+UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria located in Rue el hbib thamer, Tajerouine (coordinates: 35.8868991, 8.5524255) and open 24 hours a day. It features a wide selection of pizzas and other Italian dishes, accompanied by a range of drinks.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+The bus station in Tajerouine, Tunisia, offers a variety of services to travelers. It is located at coordinates (35.8908111, 8.5514672) and has a rating of 3.5 out of 5 stars on Google. The station provides a convenient and affordable way to travel to and from Tajerouine, and it is a popular choice for both locals and tourists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1288,64 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a great Restaurant, check out jbn lHmdny located at VHV3+Q43 jbn lHmdny, Tajerouine. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/%D8%A7%D8%AC%D8%A8%D8%A7%D9%86+%D8%A7%D9%84%D8%AD%D9%85%D8%AF%D8%A7%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fbcbba3573dd39:0x9200a77821ce7db1!8m2!3d35.8943887!4d8.5528001!16s%2Fg%2F11j8p5mf9r!19sChIJOd1zNbrL-xIRsX3OIXinAJI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 061 517.</t>
+          <t>jbn lHmdny is a restaurant located in tajerouine, Tunisia (35.8868991, 8.5524255). The restaurant has 3 reviews and is highly rated with a 5.0 stars. jbn lHmdny is owned by jbn lHmdny (proprietaire). The primary category is Restaurant.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in Tajerouine can you find a highly-rated Restaurant called jbn lHmdny that offers a variety of dining options and boasts a perfect rating of 5.0?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historic town of Tajerouine.
+- Visit the local market for souvenirs and local produce.
+Mid-Morning:
+- Try local cuisine at the highly-rated UP TOWN Cafe &amp; Resto.
+- Enjoy a delicious lunch and soak in the authentic ambiance.
+Midday:
+- Visit Ta'D'Art, a beautiful park with stunning views.
+- Relax amidst nature and enjoy the serene ambiance.
+Afternoon:
+- Take a guided tour of the Cirta Nova Cafe, a local grocery store.
+- Learn about local products and experience a unique cultural immersion.
+Evening:
+- Indulge in authentic flavors at the Pizzeria Lemporio.
+- Savor delicious pizzas and enjoy a lively dining atmosphere.
+Night:
+- Experience Dose coffee Shop's vibrant nightlife.
+- Sip on local brews and mingle with locals, enjoying the lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The restaurant "jbn lHmdny" is located in tajerouine, Tunisia. The coordinates are (35.8868991, 8.5524255). The restaurant has 3 reviews and a 5.0 rating. The main category is Restaurant. The owner is "jbn lHmdny (proprietaire)". The restaurant's phone number is 99 061 517 and the address is VHV3+Q43 jbn lHmdny, Tajerouine.
+Dose coffee Shop is a cafe located in tajerouine at the coordinates (35.8868991, 8.5524255). It has a rating of 4.3 based on 6 reviews and is open from 07:30 to 00:00.
+UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1439,58 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Immerse yourself in the vibrant culinary scene of tajerouine at Cafe galaxi, a top-rated destination for coffee enthusiasts. Located at VHW3+4R5, this must-visit spot promises an exquisite experience with its thoughtfully curated menu. Open during specific hours, Cafe galaxi offers a cozy ambiance and exceptional service. Embark on a culinary journey with a diverse range of coffee options and immerse yourself in the flavors of tajerouine at Cafe galaxi.</t>
+          <t>Cafe galaxi is located in tajerouine. Sadly, there is no available description for the place at the moment. Its coordinates are (35.8868991, 8.5524255).</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Question: Where in Tajerouine can you find a must-visit cafe, Cafe Galaxi, known for its exceptional coffee selection and cozy ambiance?</t>
+          <t>Day Plan:
+Morning:
+- Exploring Cafe Essalem for a warm and inviting atmosphere with highly-rated coffee and tea options.
+Mid-Morning:
+- Trying local cuisine at Big Ben Resto, a popular restaurant with a 4.3-star rating and a wide range of dining options.
+Midday:
+- Visiting Gare Routiere, a convenient transportation hub for bus services to various destinations.
+Afternoon:
+- Shopping at Cirta Nova Cafe, a local grocery store offering a wide variety of groceries, including fresh produce and packaged foods.
+Evening:
+- Enjoying scenic views at Ta'D'Art, a park with a very good rating and open hours from 8 am to midnight.
+Night:
+- Experiencing local flavors at Lemporio, a pizzeria open 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Big Ben Resto**, located in Tajerouine at the coordinates (35.8868991, 8.5524255), is a popular restaurant that boasts a 4.3-star rating based on 24 reviews. It operates from 9:00 AM to 11:00 PM every day, offering a wide range of dining options.
+Cafe Essalem, located in Tajerouine, is a highly-rated cafe known for its warm and inviting atmosphere. With a 4.7-star rating based on 11 reviews, this cafe offers a wide range of coffee and tea options, as well as a selection of snacks and pastries. Its convenient location at VHV3+G86 Cafe Essalem, Ave H.Bourguiba Rd, makes it easily accessible to both locals and visitors.
+UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1318,14 +1584,52 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for something fun to do, check out Tej Coffee located at WH34+8F Tej Coffee, Tajerouine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/Tej+Coffee/data=!4m7!3m6!1s0x12fbcb5157546741:0x9a7107ae29fa5f2b!8m2!3d35.9034863!4d8.5562018!16s%2Fg%2F11pyyg0g45!19sChIJQWdUV1HL-xIRK1_6Ka4HcZo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Tej Coffee is a cafe located in Tajerouine, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The cafe is located at coordinates (35.8868991, 8.5524255) and its website and phone number are not available.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find Tej Coffee, a highly rated cafe destination with a perfect rating, in the town of Tajerouine?</t>
+          <t>Day Plan:
+Morning: Exploring Tej Coffee
+Mid-Morning: Trying local cuisine at Big Ben Resto
+Midday: Visiting Cirta Nova Cafe for local groceries
+Afternoon: Enjoying Ta'D'Art park
+Evening: Dining at UP TOWN Cafe &amp; Resto
+Night: Experiencing the outdoors at Gare Routiere bus station</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Big Ben Resto is a restaurant located in tajerouine, Tunisia. It has a rating of 4.3 out of 5 stars based on 24 reviews. The restaurant offers a variety of dishes and is open from 09:00-23:00. It is located at VHR3+G3R Big Ben Resto, Ave H.Bourguiba Rd, Tajerouine.
+Tej Coffee is a cafe located in Tajerouine, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The cafe is located at coordinates (35.8868991, 8.5524255) and its website and phone number are not available.
+UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1431,12 +1735,58 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for some delicious groceries, visit Cirta Nova Cafe, conveniently located at VHV3+9G2 Cirta Nova Cafe, Ave H.Bourguiba Rd, Tajerouine. This highly-rated spot, with a 5.0 rating, offers a wide selection of quality groceries. Open during weekdays from 08:00-18:00, except on Sundays. For navigation, use these coordinates: 35.8868991, 8.5524255. You can reach them at 21 110 830 for any inquiries.</t>
+          <t>Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>If you're in Tajerouine and seeking a highly-rated grocery spot conveniently located within the city, where can you go to find a wide selection of quality groceries?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the local culture at Ta'D'Art park.
+**Mid-Morning:**
+- Visit the Cirta Nova Cafe for a quick coffee and a bite to eat.
+**Midday:**
+- Savor local cuisine at the highly-rated UP TOWN Cafe &amp; Resto.
+**Afternoon:**
+- Visit the Big Ben Resto for lunch and admire its 4.3-star ambiance.
+**Evening:**
+- Enjoy a cup of coffee and relax at the cozy Dose coffee Shop.
+**Night:**
+- Experience authentic Italian flavors at the popular Lemporio Pizzeria.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Big Ben Resto is a restaurant located in tajerouine, Tunisia. It has a rating of 4.3 out of 5 stars based on 24 reviews. The restaurant offers a variety of dishes and is open from 09:00-23:00. It is located at VHR3+G3R Big Ben Resto, Ave H.Bourguiba Rd, Tajerouine.
+Dose coffee Shop is a cafe located in tajerouine at the coordinates (35.8868991, 8.5524255). It has a rating of 4.3 based on 6 reviews and is open from 07:30 to 00:00.
+UP TOWN Cafe &amp; Resto is a restaurant with a 5.0 rating, located in tajerouine (35.9026882, 8.5564023). The place offers family dining from 10:00-23:00 and can be contacted at 51 477 218.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1530,12 +1880,58 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for something fun to do, check out el mondial located at VHQ3+V2X el mondial, Tajerouine. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/el+mondial/data=!4m7!3m6!1s0x12fbcb06cee94b43:0x17d14d4f18aeb809!8m2!3d35.889741!4d8.5526097!16s%2Fg%2F11rqh47w7n!19sChIJQ0vpzgbL-xIRCbiuGE9N0Rc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>El Mondial is a cafe located in Tajerouine, Tunisia. It is rated 5.0 out of 5 stars on Google and has received 1 review. El Mondial is categorized as a cafe and offers a variety of food and drinks. It is located at the coordinates (35.8868991, 8.5524255).</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a 5.0 rating in Tajerouine, perfect for cafe enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Exploring the local grocery store, Cirta Nova Cafe, to experience authentic Tunisian products.
+**Mid-Morning:**
+- Visiting Ta'D'Art, a highly-rated park, to enjoy its beautiful surroundings and family-friendly atmosphere.
+**Midday:**
+- Trying local cuisine at UP TOWN Cafe &amp; Resto, known for its family dining experience and 5.0 rating.
+**Afternoon:**
+- Shopping at Lemporio for souvenirs and gifts, while enjoying the Italian atmosphere.
+**Evening:**
+- Exploring the cultural heritage of Tajerouine by visiting local museums or historical sites.
+**Night:**
+- Relaxing with a traditional coffee experience at The Black Mood coffee shop, open 24 hours for a perfect nightcap.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Malek is a highly rated restaurant in Tajerouine, Tunisia. It has received 2 reviews and currently holds a 5.0 rating. The restaurant's main category is Restaurant and it is located at the coordinates (35.8868991, 8.5524255). Unfortunately, we do not have any additional information about the restaurant's offerings, website, or operating hours.
+The Black Mood coffee shop, located in Black Mood coffee shop, Tajerouine, is a popular destination for coffee lovers. The shop is open 24 hours a day and offers a wide variety of coffee drinks, as well as pastries and snacks. The shop is also known for its friendly staff and relaxed atmosphere, making it a great place to relax and enjoy a cup of coffee.
+UP TOWN Cafe &amp; Resto is a restaurant with a 5.0 rating, located in tajerouine (35.9026882, 8.5564023). The place offers family dining from 10:00-23:00 and can be contacted at 51 477 218.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria located in Rue el hbib thamer, Tajerouine (coordinates: 35.8868991, 8.5524255) and open 24 hours a day. It features a wide selection of pizzas and other Italian dishes, accompanied by a range of drinks.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+The bus station in Tajerouine, Tunisia, offers a variety of services to travelers. It is located at coordinates (35.8908111, 8.5514672) and has a rating of 3.5 out of 5 stars on Google. The station provides a convenient and affordable way to travel to and from Tajerouine, and it is a popular choice for both locals and tourists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1629,12 +2025,58 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a top-rated Cafe, check out Cafe Ramsis located at WH34+X7 Cafe Ramsis, Tajerouine. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8868991, 8.5524255.</t>
+          <t>Cafe Ramsis is a highly-rated cafe in tajerouine, Tunisia. It is located at the coordinates (35.8868991, 8.5524255).</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>What is the name and exact location (GPS coordinates) of the highly-rated Cafe Ramsis in Tajerouine with a rating of 5.0?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the local market in Tajerouine for vibrant textiles and souvenirs.
+**Mid-Morning:**
+- Indulge in a traditional Tunisian breakfast at UP TOWN Cafe &amp; Resto.
+**Midday:**
+- Visit the ancient Roman ruins of Cirta Nova for a glimpse into the region's rich history.
+**Afternoon:**
+- Relax at Ta'D'Art park with a picnic lunch while admiring the scenic surroundings.
+**Evening:**
+- Try mouthwatering pizzas and Italian cuisine at Lemporio Pizzeria while enjoying the lively ambiance.
+**Night:**
+- Experience the buzzing atmosphere at The Black Mood coffee shop, sampling their renowned coffee and catching up with locals.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Bengamra is a restaurant located in Tajerouine, Tunisia. It has a rating of 4.2 out of 5 stars and offers a variety of cuisines. The restaurant is open daily and is located at the coordinates 35.8868991, 8.5524255.
+The Black Mood coffee shop, located in Black Mood coffee shop, Tajerouine, is a popular destination for coffee lovers. The shop is open 24 hours a day and offers a wide variety of coffee drinks, as well as pastries and snacks. The shop is also known for its friendly staff and relaxed atmosphere, making it a great place to relax and enjoy a cup of coffee.
+UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria located in Rue el hbib thamer, Tajerouine (coordinates: 35.8868991, 8.5524255) and open 24 hours a day. It features a wide selection of pizzas and other Italian dishes, accompanied by a range of drinks.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+The bus station in Tajerouine, Tunisia, offers a variety of services to travelers. It is located at coordinates (35.8908111, 8.5514672) and has a rating of 3.5 out of 5 stars on Google. The station provides a convenient and affordable way to travel to and from Tajerouine, and it is a popular choice for both locals and tourists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1740,12 +2182,52 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a great pizzeria, check out Lemporio located at VHR2+4RW Lemporio, Rue el hbib thamer, Tajerouine. With a rating of 5.0, it's a must-visit spot for Pizzeria lovers. It's open 24 hours a day, so you can enjoy their delicious pizzas anytime. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/Lemporio/data=!4m7!3m6!1s0x12fbcb68eab700c1:0xa68e2cee4334713c!8m2!3d35.890365!4d8.5520637!16s%2Fg%2F11t4z9lq0l!19sChIJwQC36mjL-xIRPHE0Q-4sjqY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 678 111.</t>
+          <t>Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where in Tajerouine can you find a highly rated pizzeria that is open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Exploring Ta'D'Art
+Mid-Morning: Trying local cuisine at **Big Ben Resto**
+Midday: Visiting the Gare Routiere for transportation to UP TOWN Cafe &amp; Resto
+Afternoon: Family dining at UP TOWN Cafe &amp; Resto
+Evening: Enjoying scenic views at Cirta Nova Cafe
+Night: Relaxing with a coffee at Cafe Ramsis</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Big Ben Resto**, located in Tajerouine at the coordinates (35.8868991, 8.5524255), is a popular restaurant that boasts a 4.3-star rating based on 24 reviews. It operates from 9:00 AM to 11:00 PM every day, offering a wide range of dining options.
+Cafe Ramsis is a highly-rated cafe in tajerouine, Tunisia. It is located at the coordinates (35.8868991, 8.5524255).
+UP TOWN Cafe &amp; Resto is a restaurant with a 5.0 rating, located in tajerouine (35.9026882, 8.5564023). The place offers family dining from 10:00-23:00 and can be contacted at 51 477 218.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1855,12 +2337,52 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a top-rated Cafe, check out Black Mood coffee shop located at WH34+X7 Black Mood coffee shop, Tajerouine. This Cafe destination offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 48.721922, 44.533853. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D61555927944852%26mibextid%3DZbWKwL or call them at 51 308 738.</t>
+          <t>The Black Mood coffee shop, located in Black Mood coffee shop, Tajerouine, is a popular destination for coffee lovers. The shop is open 24 hours a day and offers a wide variety of coffee drinks, as well as pastries and snacks. The shop is also known for its friendly staff and relaxed atmosphere, making it a great place to relax and enjoy a cup of coffee.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where in Tajerouine can you find a 5.0-rated cafe with extended hours for your convenience?</t>
+          <t>Day Plan:
+Morning: Explore the local market of Cirta Nova Cafe for unique souvenirs and local products.
+Mid-Morning: Try the delicious cuisine at Big Ben Resto, known for its variety of dishes and positive reviews.
+Midday: Visit the park Ta'D'Art for a relaxing stroll and enjoy the scenic views.
+Afternoon: Take a guided tour of Dose coffee Shop to learn about the local coffee culture and sample some of their famous blends.
+Evening: Enjoy a delightful dinner at UP TOWN Cafe &amp; Resto, where you can savor the flavors of traditional Tunisian cuisine.
+Night: Head to Lemporio for a late-night pizza indulgence before returning to your hotel for a restful night.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Big Ben Resto is a restaurant located in tajerouine, Tunisia. It has a rating of 4.3 out of 5 stars based on 24 reviews. The restaurant offers a variety of dishes and is open from 09:00-23:00. It is located at VHR3+G3R Big Ben Resto, Ave H.Bourguiba Rd, Tajerouine.
+Dose coffee Shop is a cafe located in tajerouine at the coordinates (35.8868991, 8.5524255). It has a rating of 4.3 based on 6 reviews and is open from 07:30 to 00:00.
+UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1966,13 +2488,52 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a beautiful park, try Ta'D'Art located at VG6X+P9J Ta'D'Art, Tajerouine. 
-This top-rated park is perfect for nature lovers and is open from 08:00-00:00. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/Ta%27D%27Art/data=!4m7!3m6!1s0x12fbcc729129105b:0x13820867bd40b262!8m2!3d35.8618419!4d8.5483829!16s%2Fg%2F11dy_mn1hf!19sChIJWxApkXLM-xIRYrJAvWcIghM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 241 040.</t>
+          <t>Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in Tajerouine can you find a highly-rated park perfect for nature enthusiasts, accessible from 08:00-00:00 daily?</t>
+          <t>Day Plan:
+Morning: Exploring the local market and experiencing cultural immersion at the Cirta Nova Cafe.
+Mid-Morning: Trying local cuisine at Restaurant Bengamra, which offers a variety of dishes with a 4.2-star rating.
+Midday: Visiting the Ta'D'Art park, which has a very good rating of 4.5 out of 5 stars and is open daily from 8 am to midnight.
+Afternoon: Enjoying recreational activities at the UP TOWN Cafe &amp; Resto, which has a 5.0 rating and offers family dining from 10:00-23:00.
+Evening: Exploring the Tej Coffee cafe, which has a perfect 5.0 rating based on 1 review.
+Night: Relaxing with a meal at Lemporio, a pizzeria that is open 24 hours a day and has a contact number of 25 678 111.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Bengamra is a restaurant located in Tajerouine, Tunisia. It has a rating of 4.2 out of 5 stars and offers a variety of cuisines. The restaurant is open daily and is located at the coordinates 35.8868991, 8.5524255.
+Tej Coffee is a cafe located in Tajerouine, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The cafe is located at coordinates (35.8868991, 8.5524255) and its website and phone number are not available.
+UP TOWN Cafe &amp; Resto is a restaurant with a 5.0 rating, located in tajerouine (35.9026882, 8.5564023). The place offers family dining from 10:00-23:00 and can be contacted at 51 477 218.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+The bus station in Tajerouine, Tunisia, offers a variety of services to travelers. It is located at coordinates (35.8908111, 8.5514672) and has a rating of 3.5 out of 5 stars on Google. The station provides a convenient and affordable way to travel to and from Tajerouine, and it is a popular choice for both locals and tourists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2082,12 +2643,52 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a great dining experience, check out Big Ben Resto located at VHR3+G3R Big Ben Resto, Ave H.Bourguiba Rd, Tajerouine. This spot is perfect for Restaurant enthusiasts and offers a great option for Restaurant. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.facebook.com/pages/Big-Ben-Resto/1643318282455345 or call them at 22 254 905.</t>
+          <t>Big Ben Resto is a restaurant located in tajerouine, Tunisia. It has a rating of 4.3 out of 5 stars based on 24 reviews. The restaurant offers a variety of dishes and is open from 09:00-23:00. It is located at VHR3+G3R Big Ben Resto, Ave H.Bourguiba Rd, Tajerouine.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where in Tajerouine can you find a highly-rated restaurant, perfect for Restaurant enthusiasts and boasting a 4.3 rating?</t>
+          <t>Day Plan:
+Morning: Explore the local grocery store, Cirta Nova Cafe, for fresh produce and groceries.
+Mid-Morning: Visit Ta'D'Art, a highly-rated park, to enjoy scenic views and relax amidst nature.
+Midday: Try local cuisine at jbn lHmdny, a popular restaurant known for its excellent reviews and high ratings.
+Afternoon: Take a guided tour of the Tajerouine Bus Station to learn about the transportation hub and its services.
+Evening: Enjoy scenic views at Cafe galaxi while savoring local flavors and ambiance.
+Night: Experience cultural immersion at UP TOWN Cafe &amp; Resto, which offers family dining and a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+jbn lHmdny is a restaurant located in tajerouine, Tunisia (35.8868991, 8.5524255). The restaurant has 3 reviews and is highly rated with a 5.0 stars. jbn lHmdny is owned by jbn lHmdny (proprietaire). The primary category is Restaurant.
+Cafe galaxi is located in tajerouine. Sadly, there is no available description for the place at the moment. Its coordinates are (35.8868991, 8.5524255).
+UP TOWN Cafe &amp; Resto is a restaurant with a 5.0 rating, located in tajerouine (35.9026882, 8.5564023). The place offers family dining from 10:00-23:00 and can be contacted at 51 477 218.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria located in Rue el hbib thamer, Tajerouine (coordinates: 35.8868991, 8.5524255) and open 24 hours a day. It features a wide selection of pizzas and other Italian dishes, accompanied by a range of drinks.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+The bus station in Tajerouine, Tunisia, offers a variety of services to travelers. It is located at coordinates (35.8908111, 8.5514672) and has a rating of 3.5 out of 5 stars on Google. The station provides a convenient and affordable way to travel to and from Tajerouine, and it is a popular choice for both locals and tourists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2193,14 +2794,52 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a great Cafe, check out Cafe Essalem located at VHV3+G86 Cafe Essalem, Ave H.Bourguiba Rd, Tajerouine. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Essalem/data=!4m7!3m6!1s0x12fbcbc1ce033585:0xaf992f74f85b810a!8m2!3d35.893789!4d8.55326!16s%2Fg%2F11dxc8tdw0!19sChIJhTUDzsHL-xIRCoFb-HQvma8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 40 188 684.</t>
+          <t>Cafe Essalem, located in Tajerouine, is a highly-rated cafe known for its warm and inviting atmosphere. With a 4.7-star rating based on 11 reviews, this cafe offers a wide range of coffee and tea options, as well as a selection of snacks and pastries. Its convenient location at VHV3+G86 Cafe Essalem, Ave H.Bourguiba Rd, makes it easily accessible to both locals and visitors.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where in Tajerouine can you find a highly-rated (4.7) Cafe Essalem that is open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore the historical sites in Tajerouine, including the ancient Roman ruins and the historic mosque.
+Mid-Morning: Visit the bustling local market to experience the local culture and purchase unique souvenirs.
+Midday: Try local cuisine at Restaurant Malek, known for its authentic Tunisian dishes and excellent reviews.
+Afternoon: Take a guided tour of the Ta'D'Art park, enjoying its serene atmosphere and stunning artwork.
+Evening: Enjoy a relaxing evening with a coffee and pastries at The Black Mood coffee shop, known for its friendly atmosphere and delicious drinks.
+Night: Immerse yourself in the flavors of Italian cuisine at Lemporio Pizzeria, offering a wide selection of pizzas and other Italian dishes.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Malek is a highly rated restaurant in Tajerouine, Tunisia. It has received 2 reviews and currently holds a 5.0 rating. The restaurant's main category is Restaurant and it is located at the coordinates (35.8868991, 8.5524255). Unfortunately, we do not have any additional information about the restaurant's offerings, website, or operating hours.
+The Black Mood coffee shop, located in Black Mood coffee shop, Tajerouine, is a popular destination for coffee lovers. The shop is open 24 hours a day and offers a wide variety of coffee drinks, as well as pastries and snacks. The shop is also known for its friendly staff and relaxed atmosphere, making it a great place to relax and enjoy a cup of coffee.
+UP TOWN Cafe &amp; Resto is a restaurant with a 5.0 rating, located in tajerouine (35.9026882, 8.5564023). The place offers family dining from 10:00-23:00 and can be contacted at 51 477 218.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria located in Rue el hbib thamer, Tajerouine (coordinates: 35.8868991, 8.5524255) and open 24 hours a day. It features a wide selection of pizzas and other Italian dishes, accompanied by a range of drinks.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+The bus station in Tajerouine, Tunisia, offers a variety of services to travelers. It is located at coordinates (35.8908111, 8.5514672) and has a rating of 3.5 out of 5 stars on Google. The station provides a convenient and affordable way to travel to and from Tajerouine, and it is a popular choice for both locals and tourists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2302,12 +2941,60 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for something fun to do, check out Restaurant Bengamra located at VHM2+HR6 Restaurant Bengamra, Tajerouine. This top-rated spot is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, 7 days a week. For more details, call them at 97 782 798.</t>
+          <t>Restaurant Bengamra is a restaurant located in Tajerouine, Tunisia. It has a rating of 4.2 out of 5 stars and offers a variety of cuisines. The restaurant is open daily and is located at the coordinates 35.8868991, 8.5524255.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where in Tajerouine can you find a popular Restaurant offering a highly rated dining experience open 24/7?</t>
+          <t>Day Plan:
+Morning: Explore Cirta Nova Cafe for local groceries and friendly service.
+Mid-Morning: Visit Big Ben Resto for a highly-rated dining experience with a variety of dishes.
+Midday: Enjoy the scenic views at Ta'D'Art, a highly-rated park with extended hours.
+Afternoon: Visit Cafe Essalem, a well-rated cafe with a variety of services and amenities.
+Evening: Try local cuisine at UP TOWN Cafe &amp; Resto, a family-owned restaurant with a 5.0 average rating.
+Night: Engage in outdoor activities at Gare Routiere, a convenient transportation hub for the region with bus services to various destinations.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Big Ben Resto is a restaurant located in tajerouine, Tunisia. It has a rating of 4.3 out of 5 stars based on 24 reviews. The restaurant offers a variety of dishes and is open from 09:00-23:00. It is located at VHR3+G3R Big Ben Resto, Ave H.Bourguiba Rd, Tajerouine.
+Cafe Essalem, located in Tajerouine (35.8868991, 8.5524255), is a well-rated cafe with a 4.7-star rating from 11 reviews. It is open 24 hours a day and offers a variety of services and amenities, including:
+- Featured image
+- Website
+- Owner information
+- Categories
+- Phone number
+- Address
+- Review keywords
+- Link to Google Maps listing
+UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2417,12 +3104,52 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a great family restaurant, check out UP TOWN Cafe &amp; Resto located at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine. This top-rated destination is perfect for Restaurant familial lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 38.905489, -77.005095. For more details, visit their website at https://m.facebook.com/Tajerouine-UpTown-102854505252105/posts or call them at 51 477 218.</t>
+          <t>UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where is the top-rated family restaurant in Tajerouine that offers a wide variety of categories and has a perfect rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic sites and landmarks of Tajerouine, such as the Roman ruins or the ancient city of Dougga.
+Mid-Morning: Try local cuisine at Restaurant Bengamra, known for its delicious Tunisian dishes and friendly service.
+Midday: Visit Ta'D'Art, a park with beautiful gardens, stunning views, and a peaceful atmosphere, for a relaxing picnic lunch.
+Afternoon: Shop for local souvenirs and handicrafts at the Tajerouine Market, where you can find unique treasures and support local artisans.
+Evening: Take a guided tour of the Cirta Nova Cafe, a local grocery store known for its friendly staff and excellent customer service.
+Night: Enjoy a delightful dinner at UP TOWN Cafe &amp; Resto, offering family dining with a 5.0 rating and a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Bengamra is a restaurant located in Tajerouine, Tunisia. It has a rating of 4.2 out of 5 stars and offers a variety of cuisines. The restaurant is open daily and is located at the coordinates 35.8868991, 8.5524255.
+Cafe galaxi is located in tajerouine. Sadly, there is no available description for the place at the moment. Its coordinates are (35.8868991, 8.5524255).
+UP TOWN Cafe &amp; Resto is a restaurant with a 5.0 rating, located in tajerouine (35.9026882, 8.5564023). The place offers family dining from 10:00-23:00 and can be contacted at 51 477 218.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+The bus station in Tajerouine, Tunisia, offers a variety of services to travelers. It is located at coordinates (35.8908111, 8.5514672) and has a rating of 3.5 out of 5 stars on Google. The station provides a convenient and affordable way to travel to and from Tajerouine, and it is a popular choice for both locals and tourists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2528,12 +3255,52 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a great cafe, check out Dose coffee Shop located at VHQ2+J4V Dose coffee Shop, nhj lfrwsy@, Tajerouine. This top-rated destination is perfect for Cafe lovers and has a rating of 4.3. It's open during these hours: 07:30-00:00. For more details, visit their website at https://www.google.com/maps/place/Dose+coffee+Shop/data=!4m7!3m6!1s0x12fbcb58efe83d5b:0xe4e38072650fe2c6!8m2!3d35.8891211!4d8.5502898!16s%2Fg%2F11khslxtcy!19sChIJWz3o71jL-xIRxuIPZXKA4-Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 567 145.</t>
+          <t>Dose Coffee Shop is a highly-rated cafe located in Tajerouine, Tunisia, with a 4.3 rating based on 6 reviews. It offers a cozy and welcoming atmosphere, perfect for enjoying a freshly brewed cup of coffee or indulging in other cafe delicacies. The shop is conveniently located at the coordinates (35.8868991, 8.5524255), making it easily accessible for locals and visitors alike. Whether you're looking for a quick caffeine fix or a relaxing afternoon with friends, Dose Coffee Shop is an excellent choice.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated café with a 4.3 rating in the Tajerouine area?</t>
+          <t>Day Plan:
+Morning: Exploring Gare Routiere, the central bus station in Tajerouine
+Mid-Morning: Trying local cuisine at Big Ben Resto, a highly-rated restaurant
+Midday: Visiting Cirta Nova Cafe, a local grocery store known for its friendly staff
+Afternoon: Relaxing with a stroll through the scenic Ta'D'Art park
+Evening: Enjoying a delectable dinner at UP TOWN Cafe &amp; Resto, a family-friendly restaurant
+Night: Experiencing the vibrant atmosphere of Cafe Essalem, a popular cafe known for its warm and inviting ambiance</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Big Ben Resto is a restaurant located in tajerouine, Tunisia. It has a rating of 4.3 out of 5 stars based on 24 reviews. The restaurant offers a variety of dishes and is open from 09:00-23:00. It is located at VHR3+G3R Big Ben Resto, Ave H.Bourguiba Rd, Tajerouine.
+Cafe Essalem, located in Tajerouine, is a highly-rated cafe known for its warm and inviting atmosphere. With a 4.7-star rating based on 11 reviews, this cafe offers a wide range of coffee and tea options, as well as a selection of snacks and pastries. Its convenient location at VHV3+G86 Cafe Essalem, Ave H.Bourguiba Rd, makes it easily accessible to both locals and visitors.
+UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria located in Rue el hbib thamer, Tajerouine (coordinates: 35.8868991, 8.5524255) and open 24 hours a day. It features a wide selection of pizzas and other Italian dishes, accompanied by a range of drinks.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2635,15 +3402,52 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and seeking a restaurant, head to jbn lHmdny, situated at VHV3+Q43 jbn lHmdny, Tajerouine. 
-This highly-rated destination has a rating of 5.0 and is a great choice for Restaurant lovers. 
-To get assistance, call them at 99 061 517. 
-For more information, visit their website at https://www.google.com/maps/place/%D8%A7%D8%AC%D8%A8%D8%A7%D9%86+%D8%A7%D9%84%D8%AD%D9%85%D8%AF%D8%A7%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fbcbba3573dd39:0x9200a77821ce7db1!8m2!3d35.8943887!4d8.5528001!16s%2Fg%2F11j8p5mf9r!19sChIJOd1zNbrL-xIRsX3OIXinAJI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The restaurant "jbn lHmdny" is located in tajerouine, Tunisia. The coordinates are (35.8868991, 8.5524255). The restaurant has 3 reviews and a 5.0 rating. The main category is Restaurant. The owner is "jbn lHmdny (proprietaire)". The restaurant's phone number is 99 061 517 and the address is VHV3+Q43 jbn lHmdny, Tajerouine.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>What is the location of a highly-rated restaurant in Tajerouine with a 5.0 rating and easily accessible by phone or website?</t>
+          <t>Day Plan:
+Morning: Explore the Big Ben Resto, a highly-rated restaurant offering a variety of local delicacies.
+Mid-Morning: Visit Cafe Ramsis for a taste of traditional Tunisian coffee and pastries.
+Midday: Take a guided tour of the Cirta Nova Cafe, a local grocery store known for its friendly staff and wide selection of local products.
+Afternoon: Relax and enjoy scenic views at Ta'D'Art, a park with a 4.5-star rating and open from 8 am to midnight.
+Evening: Experience cultural immersion at the bus station in Tajerouine, a transportation hub where you can interact with locals and observe their daily lives.
+Night: Indulge in delicious pizzas and Italian cuisine at Lemporio, a pizzeria open 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Big Ben Resto is a restaurant located in tajerouine, Tunisia. It has a rating of 4.3 out of 5 stars based on 24 reviews. The restaurant offers a variety of dishes and is open from 09:00-23:00. It is located at VHR3+G3R Big Ben Resto, Ave H.Bourguiba Rd, Tajerouine.
+Cafe Ramsis is a highly-rated cafe in tajerouine, Tunisia. It is located at the coordinates (35.8868991, 8.5524255).
+UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria located in Rue el hbib thamer, Tajerouine (coordinates: 35.8868991, 8.5524255) and open 24 hours a day. It features a wide selection of pizzas and other Italian dishes, accompanied by a range of drinks.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+The bus station in Tajerouine, Tunisia, offers a variety of services to travelers. It is located at coordinates (35.8908111, 8.5514672) and has a rating of 3.5 out of 5 stars on Google. The station provides a convenient and affordable way to travel to and from Tajerouine, and it is a popular choice for both locals and tourists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2745,14 +3549,58 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for something fun to do, check out Restaurant Malek located at VHV2+9V4 Restaurant Malek. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Malek/data=!4m7!3m6!1s0x12fbcb5a4fdcca37:0x9795c0e4b9ac96c9!8m2!3d35.893384!4d8.5521886!16s%2Fg%2F11h_2cngdq!19sChIJN8rcT1rL-xIRyZasueTAlZc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 674 965.</t>
+          <t>Restaurant Malek is a highly rated restaurant in Tajerouine, Tunisia. It has received 2 reviews and currently holds a 5.0 rating. The restaurant's main category is Restaurant and it is located at the coordinates (35.8868991, 8.5524255). Unfortunately, we do not have any additional information about the restaurant's offerings, website, or operating hours.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant in tajerouine specializes in providing a wide selection of restaurant options for restaurant enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic landmarks of Tajerouine, including the Roman ruins and the medieval fortress.
+**Mid-Morning:**
+* Visit Cirta Nova Cafe for a traditional Tunisian breakfast and enjoy the warm hospitality of the staff.
+**Midday:**
+* Try local cuisine at Big Ben Resto, known for its delicious dishes and excellent service.
+**Afternoon:**
+* Take a guided tour of the Ta'D'Art park, immersing yourself in the stunning natural beauty and diverse plant life.
+**Evening:**
+* Visit UP TOWN Cafe &amp; Resto for a family-friendly dining experience, offering a cozy and welcoming atmosphere.
+**Night:**
+* Head to Lemporio Pizzeria, renowned for its authentic Italian cuisine and vibrant ambiance.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Big Ben Resto is a restaurant located in tajerouine, Tunisia. It has a rating of 4.3 out of 5 stars based on 24 reviews. The restaurant offers a variety of dishes and is open from 09:00-23:00. It is located at VHR3+G3R Big Ben Resto, Ave H.Bourguiba Rd, Tajerouine.
+Tej Coffee is a cafe located in Tajerouine, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The cafe is located at coordinates (35.8868991, 8.5524255) and its website and phone number are not available.
+UP TOWN Cafe &amp; Resto is a restaurant with a 5.0 rating, located in tajerouine (35.9026882, 8.5564023). The place offers family dining from 10:00-23:00 and can be contacted at 51 477 218.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria located in Rue el hbib thamer, Tajerouine (coordinates: 35.8868991, 8.5524255) and open 24 hours a day. It features a wide selection of pizzas and other Italian dishes, accompanied by a range of drinks.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2858,12 +3706,52 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a Pizzeria, check out Lemporio located at Rue el hbib thamer, Tajerouine. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8868991, 8.5524255. For more details, visit their website at https://www.google.com/maps/place/Lemporio/data=!4m7!3m6!1s0x12fbcb68eab700c1:0xa68e2cee4334713c!8m2!3d35.890365!4d8.5520637!16s%2Fg%2F11t4z9lq0l!19sChIJwQC36mjL-xIRPHE0Q-4sjqY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 678 111.</t>
+          <t>Lemporio is a Pizzeria located in Rue el hbib thamer, Tajerouine (coordinates: 35.8868991, 8.5524255) and open 24 hours a day. It features a wide selection of pizzas and other Italian dishes, accompanied by a range of drinks.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Pizzeria in Tajerouine, with detailed contact information and GPS coordinates for easy navigation?</t>
+          <t>Day Plan:
+Morning: Explore the quaint streets of Tajerouine, taking in the local atmosphere and visiting historical landmarks.
+Mid-Morning: Try local cuisine at Restaurant Bengamra, known for its diverse menu and high ratings.
+Midday: Visit Cirta Nova Cafe for a taste of local groceries and friendly service, immersing yourself in the daily life of the town.
+Afternoon: Enjoy the serene atmosphere and scenic views at Ta'D'Art, a highly-rated park, perfect for relaxation and contemplation.
+Evening: Participate in a cooking class at UP TOWN Cafe &amp; Resto, learning about traditional Tunisian cuisine and engaging in a hands-on culinary experience.
+Night: Experience the vibrant nightlife of Tajerouine at Cafe galaxi, enjoy live music, meet locals, and soak in the city's festive ambiance.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Bengamra is a restaurant located in Tajerouine, Tunisia. It has a rating of 4.2 out of 5 stars and offers a variety of cuisines. The restaurant is open daily and is located at the coordinates 35.8868991, 8.5524255.
+Cafe galaxi is located in tajerouine. Sadly, there is no available description for the place at the moment. Its coordinates are (35.8868991, 8.5524255).
+UP TOWN Cafe &amp; Resto is a family restaurant located in Tajerouine, Tunisia. It is highly rated on Google with a 5.0 average score from 7 reviews. The restaurant is open from 10:00 AM to 11:00 PM every day and serves a variety of dishes. It also offers delivery and takeout services. The restaurant is owned by UP TOWN Cafe &amp; Resto (proprietaire) and can be found at WH34+3HC UP TOWN Cafe &amp; Resto, Tajerouine.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria, located in tajerouine (lon.: 8.5524255, lat.: 35.8868991). It is open 24 hours a day and the contact number is 25 678 111.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+The bus station in Tajerouine, Tunisia, offers a variety of services to travelers. It is located at coordinates (35.8908111, 8.5514672) and has a rating of 3.5 out of 5 stars on Google. The station provides a convenient and affordable way to travel to and from Tajerouine, and it is a popular choice for both locals and tourists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2961,12 +3849,52 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and looking for a Gare routiere, check out gare routiere located at gare routiere, Tajerouine. This top-rated destination has a rating of 3.5, making it a must-visit spot for Gare routiere lovers. To find out more, visit their website at https://www.google.com/maps/place/gare+routi%C3%A8re/data=!4m7!3m6!1s0x12fbcbeae1eff6cd:0x54d3e5db86b10e7!8m2!3d35.8906356!4d8.5516302!16s%2Fg%2F12hl0fnq1!19sChIJzfbv4erL-xIR5xBruF0-TQU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The bus station in Tajerouine, Tunisia, offers a variety of services to travelers. It is located at coordinates (35.8908111, 8.5514672) and has a rating of 3.5 out of 5 stars on Google. The station provides a convenient and affordable way to travel to and from Tajerouine, and it is a popular choice for both locals and tourists.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Gare routiere destination with a website near Tajerouine?</t>
+          <t>Day Plan:
+Morning: Explore Cirta Nova Cafe, a local grocery store known for its friendly staff and wide range of groceries.
+Mid-Morning: Visit Ta'D'Art, a highly-rated park with beautiful surroundings.
+Midday: Try local cuisine at UP TOWN Cafe &amp; Resto, a highly-rated restaurant offering family dining.
+Afternoon: Visit Tej Coffee, a cozy cafe with a perfect rating, for a relaxing break.
+Evening: Experience the local culture at the bus station, a popular hub for travelers.
+Night: Indulge in delicious pizzas and Italian dishes at Lemporio, open 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The restaurant "jbn lHmdny" is located in tajerouine, Tunisia. The coordinates are (35.8868991, 8.5524255). The restaurant has 3 reviews and a 5.0 rating. The main category is Restaurant. The owner is "jbn lHmdny (proprietaire)". The restaurant's phone number is 99 061 517 and the address is VHV3+Q43 jbn lHmdny, Tajerouine.
+Tej Coffee is a cafe located in Tajerouine, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The cafe is located at coordinates (35.8868991, 8.5524255) and its website and phone number are not available.
+UP TOWN Cafe &amp; Resto is a restaurant with a 5.0 rating, located in tajerouine (35.9026882, 8.5564023). The place offers family dining from 10:00-23:00 and can be contacted at 51 477 218.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria located in Rue el hbib thamer, Tajerouine (coordinates: 35.8868991, 8.5524255) and open 24 hours a day. It features a wide selection of pizzas and other Italian dishes, accompanied by a range of drinks.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+The bus station in Tajerouine, Tunisia, offers a variety of services to travelers. It is located at coordinates (35.8908111, 8.5514672) and has a rating of 3.5 out of 5 stars on Google. The station provides a convenient and affordable way to travel to and from Tajerouine, and it is a popular choice for both locals and tourists.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3064,12 +3992,52 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in tajerouine and in search of a Gare routiere, head to gare routiere situated at gare routiere, Tajerouine. This well-regarded destination has garnered a 3.5-star rating and is the perfect spot for Gare routiere enthusiasts. Its GPS coordinates for simple navigation are (35.8908111, 8.5514672). For further information, you can also visit their website.</t>
+          <t>Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where in tajerouine can you find a highly rated Gare routiere with GPS coordinates (35.8908111, 8.5514672)?</t>
+          <t>Day Plan:
+Morning: Explore Cafe Ramsis for a taste of local culture.
+Mid-Morning: Visit Lemporio for a delicious Italian lunch.
+Midday: Take a guided tour of Gare Routiere to learn about local transportation.
+Afternoon: Enjoy a relaxing picnic at Ta'D'Art Park with scenic views.
+Evening: Try traditional Tunisian cuisine at the highly-rated UP TOWN Cafe &amp; Resto.
+Night: Experience the lively atmosphere at Cirta Nova Cafe for a perfect ending to the day.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The restaurant "jbn lHmdny" is located in tajerouine, Tunisia. The coordinates are (35.8868991, 8.5524255). The restaurant has 3 reviews and a 5.0 rating. The main category is Restaurant. The owner is "jbn lHmdny (proprietaire)". The restaurant's phone number is 99 061 517 and the address is VHV3+Q43 jbn lHmdny, Tajerouine.
+Cafe Ramsis is a highly-rated cafe in tajerouine, Tunisia. It is located at the coordinates (35.8868991, 8.5524255).
+UP TOWN Cafe &amp; Resto is a restaurant with a 5.0 rating, located in tajerouine (35.9026882, 8.5564023). The place offers family dining from 10:00-23:00 and can be contacted at 51 477 218.
+Cirta Nova Cafe is a local grocery store located in Tajerouine, Tunisia. Its exact coordinates are (35.8868991, 8.5524255). The store is open from 8 am to 6 pm every day except Sundays. They offer a wide variety of groceries, including fresh produce and packaged foods. The store is also known for its friendly staff and excellent customer service.
+Lemporio is a Pizzeria located in Rue el hbib thamer, Tajerouine (coordinates: 35.8868991, 8.5524255) and open 24 hours a day. It features a wide selection of pizzas and other Italian dishes, accompanied by a range of drinks.
+Ta'D'Art, located in Tajerouine, is an establishment classified as a park. It benefits from a very good rating of 4.5 out of 5 stars from 11 reviews. Ta'D'Art opens its doors every day of the week from 8am to midnight (08:00-00:00).
+Gare Routiere is a bus station located in Tajerouine, Tunisia. It offers bus services to various destinations and is a convenient transportation hub for the region. The station is located at (35.8908111, 8.5514672).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
